--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9180CC-0056-4851-BF46-75832B8CC410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C790C2EA-97A0-4FDF-800A-37DC6F98B4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Stim</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>green</t>
+  </si>
+  <si>
+    <t>KeyNum</t>
   </si>
 </sst>
 </file>
@@ -430,22 +433,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="3" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,28 +459,31 @@
         <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -487,29 +493,32 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -519,29 +528,32 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.4E-2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -551,29 +563,32 @@
       <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.08</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -583,31 +598,34 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.04</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -615,31 +633,34 @@
       <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -647,31 +668,34 @@
       <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.4E-2</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -679,31 +703,34 @@
       <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.08</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -711,25 +738,28 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.04</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>27</v>
       </c>
     </row>
